--- a/data/strategies/中信场内策略结果.xlsx
+++ b/data/strategies/中信场内策略结果.xlsx
@@ -18,23 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="189">
   <si>
     <t>鹏华中证细分化工产业主题ETF</t>
   </si>
   <si>
+    <t>汇添富中证主要消费ETF</t>
+  </si>
+  <si>
     <t>南方中证申万有色金属ETF</t>
   </si>
   <si>
+    <t>鹏华中证酒ETF</t>
+  </si>
+  <si>
     <t>华泰柏瑞中证光伏产业ETF</t>
   </si>
   <si>
-    <t>鹏华中证酒ETF</t>
-  </si>
-  <si>
-    <t>汇添富中证主要消费ETF</t>
-  </si>
-  <si>
     <t>景气轮动</t>
   </si>
   <si>
@@ -65,73 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>3.62%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>20.10%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>9.26%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>20.65%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>19.42%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>28.97%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>6.35%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>16.99%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>14.39%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>21.46%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>19.78%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>28.87%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -143,106 +140,106 @@
     <t>159870.OF</t>
   </si>
   <si>
+    <t>159928.OF</t>
+  </si>
+  <si>
     <t>512400.OF</t>
   </si>
   <si>
+    <t>512690.OF</t>
+  </si>
+  <si>
     <t>515790.OF</t>
   </si>
   <si>
-    <t>512690.OF</t>
-  </si>
-  <si>
-    <t>159928.OF</t>
-  </si>
-  <si>
-    <t>5.53%</t>
-  </si>
-  <si>
-    <t>-1.05%</t>
-  </si>
-  <si>
-    <t>14.72%</t>
-  </si>
-  <si>
-    <t>-3.91%</t>
-  </si>
-  <si>
-    <t>-6.38%</t>
-  </si>
-  <si>
-    <t>18.93%</t>
-  </si>
-  <si>
-    <t>15.51%</t>
-  </si>
-  <si>
-    <t>28.47%</t>
-  </si>
-  <si>
-    <t>23.84%</t>
-  </si>
-  <si>
-    <t>6.64%</t>
-  </si>
-  <si>
-    <t>15.86%</t>
-  </si>
-  <si>
-    <t>11.38%</t>
-  </si>
-  <si>
-    <t>12.98%</t>
-  </si>
-  <si>
-    <t>5.65%</t>
-  </si>
-  <si>
-    <t>-3.53%</t>
-  </si>
-  <si>
-    <t>21.99%</t>
-  </si>
-  <si>
-    <t>26.97%</t>
-  </si>
-  <si>
-    <t>34.69%</t>
-  </si>
-  <si>
-    <t>32.39%</t>
-  </si>
-  <si>
-    <t>17.49%</t>
-  </si>
-  <si>
-    <t>23.07%</t>
-  </si>
-  <si>
-    <t>30.19%</t>
-  </si>
-  <si>
-    <t>28.36%</t>
-  </si>
-  <si>
-    <t>31.39%</t>
-  </si>
-  <si>
-    <t>21.78%</t>
-  </si>
-  <si>
-    <t>33.36%</t>
-  </si>
-  <si>
-    <t>40.13%</t>
-  </si>
-  <si>
-    <t>35.81%</t>
-  </si>
-  <si>
-    <t>40.03%</t>
-  </si>
-  <si>
-    <t>30.15%</t>
+    <t>6.83%</t>
+  </si>
+  <si>
+    <t>-9.79%</t>
+  </si>
+  <si>
+    <t>13.00%</t>
+  </si>
+  <si>
+    <t>-8.51%</t>
+  </si>
+  <si>
+    <t>23.86%</t>
+  </si>
+  <si>
+    <t>16.09%</t>
+  </si>
+  <si>
+    <t>-3.97%</t>
+  </si>
+  <si>
+    <t>24.35%</t>
+  </si>
+  <si>
+    <t>10.23%</t>
+  </si>
+  <si>
+    <t>30.10%</t>
+  </si>
+  <si>
+    <t>21.19%</t>
+  </si>
+  <si>
+    <t>-9.62%</t>
+  </si>
+  <si>
+    <t>27.42%</t>
+  </si>
+  <si>
+    <t>-1.12%</t>
+  </si>
+  <si>
+    <t>21.57%</t>
+  </si>
+  <si>
+    <t>23.52%</t>
+  </si>
+  <si>
+    <t>19.24%</t>
+  </si>
+  <si>
+    <t>36.60%</t>
+  </si>
+  <si>
+    <t>29.15%</t>
+  </si>
+  <si>
+    <t>37.33%</t>
+  </si>
+  <si>
+    <t>23.41%</t>
+  </si>
+  <si>
+    <t>21.47%</t>
+  </si>
+  <si>
+    <t>33.28%</t>
+  </si>
+  <si>
+    <t>30.16%</t>
+  </si>
+  <si>
+    <t>30.05%</t>
+  </si>
+  <si>
+    <t>32.86%</t>
+  </si>
+  <si>
+    <t>29.76%</t>
+  </si>
+  <si>
+    <t>40.49%</t>
+  </si>
+  <si>
+    <t>39.57%</t>
+  </si>
+  <si>
+    <t>36.12%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -257,7 +254,7 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>300274.SZ</t>
@@ -269,10 +266,13 @@
     <t>600438.SH</t>
   </si>
   <si>
+    <t>000858.SZ</t>
+  </si>
+  <si>
     <t>600519.SH</t>
   </si>
   <si>
-    <t>000858.SZ</t>
+    <t>002129.SZ</t>
   </si>
   <si>
     <t>000568.SZ</t>
@@ -284,22 +284,16 @@
     <t>600309.SH</t>
   </si>
   <si>
+    <t>600809.SH</t>
+  </si>
+  <si>
     <t>300450.SZ</t>
   </si>
   <si>
-    <t>600809.SH</t>
-  </si>
-  <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
     <t>600089.SH</t>
   </si>
   <si>
-    <t>601899.SH</t>
+    <t>002812.SZ</t>
   </si>
   <si>
     <t>600887.SH</t>
@@ -308,76 +302,79 @@
     <t>000860.SZ</t>
   </si>
   <si>
+    <t>603806.SH</t>
+  </si>
+  <si>
     <t>601877.SH</t>
   </si>
   <si>
-    <t>603799.SH</t>
-  </si>
-  <si>
-    <t>603806.SH</t>
-  </si>
-  <si>
-    <t>002812.SZ</t>
-  </si>
-  <si>
-    <t>3.90%</t>
-  </si>
-  <si>
-    <t>3.72%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>3.45%</t>
-  </si>
-  <si>
-    <t>3.36%</t>
-  </si>
-  <si>
-    <t>2.94%</t>
-  </si>
-  <si>
-    <t>2.58%</t>
-  </si>
-  <si>
-    <t>2.46%</t>
-  </si>
-  <si>
-    <t>2.38%</t>
-  </si>
-  <si>
-    <t>2.09%</t>
-  </si>
-  <si>
-    <t>2.07%</t>
-  </si>
-  <si>
-    <t>1.78%</t>
-  </si>
-  <si>
-    <t>1.75%</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.43%</t>
-  </si>
-  <si>
-    <t>1.36%</t>
-  </si>
-  <si>
-    <t>1.29%</t>
-  </si>
-  <si>
-    <t>1.19%</t>
-  </si>
-  <si>
-    <t>1.12%</t>
+    <t>300316.SZ</t>
+  </si>
+  <si>
+    <t>603288.SH</t>
+  </si>
+  <si>
+    <t>002714.SZ</t>
+  </si>
+  <si>
+    <t>377.85%</t>
+  </si>
+  <si>
+    <t>360.62%</t>
+  </si>
+  <si>
+    <t>336.24%</t>
+  </si>
+  <si>
+    <t>330.54%</t>
+  </si>
+  <si>
+    <t>322.64%</t>
+  </si>
+  <si>
+    <t>288.35%</t>
+  </si>
+  <si>
+    <t>287.23%</t>
+  </si>
+  <si>
+    <t>262.65%</t>
+  </si>
+  <si>
+    <t>218.59%</t>
+  </si>
+  <si>
+    <t>216.25%</t>
+  </si>
+  <si>
+    <t>198.53%</t>
+  </si>
+  <si>
+    <t>167.94%</t>
+  </si>
+  <si>
+    <t>159.63%</t>
+  </si>
+  <si>
+    <t>154.60%</t>
+  </si>
+  <si>
+    <t>141.62%</t>
+  </si>
+  <si>
+    <t>136.65%</t>
+  </si>
+  <si>
+    <t>126.26%</t>
+  </si>
+  <si>
+    <t>114.25%</t>
+  </si>
+  <si>
+    <t>112.46%</t>
+  </si>
+  <si>
+    <t>110.45%</t>
   </si>
   <si>
     <t>阳光电源</t>
@@ -389,10 +386,13 @@
     <t>通威股份</t>
   </si>
   <si>
+    <t>五粮液</t>
+  </si>
+  <si>
     <t>贵州茅台</t>
   </si>
   <si>
-    <t>五粮液</t>
+    <t>中环股份</t>
   </si>
   <si>
     <t>泸州老窖</t>
@@ -404,22 +404,16 @@
     <t>万华化学</t>
   </si>
   <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
     <t>先导智能</t>
   </si>
   <si>
-    <t>山西汾酒</t>
-  </si>
-  <si>
-    <t>中环股份</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
     <t>特变电工</t>
   </si>
   <si>
-    <t>紫金矿业</t>
+    <t>恩捷股份</t>
   </si>
   <si>
     <t>伊利股份</t>
@@ -428,16 +422,19 @@
     <t>顺鑫农业</t>
   </si>
   <si>
+    <t>福斯特</t>
+  </si>
+  <si>
     <t>正泰电器</t>
   </si>
   <si>
-    <t>华友钴业</t>
-  </si>
-  <si>
-    <t>福斯特</t>
-  </si>
-  <si>
-    <t>恩捷股份</t>
+    <t>晶盛机电</t>
+  </si>
+  <si>
+    <t>海天味业</t>
+  </si>
+  <si>
+    <t>牧原股份</t>
   </si>
   <si>
     <t>电站系统集成(不含自制产品)</t>
@@ -449,10 +446,13 @@
     <t>配合饲料</t>
   </si>
   <si>
+    <t>酒类</t>
+  </si>
+  <si>
     <t>茅台酒</t>
   </si>
   <si>
-    <t>酒类</t>
+    <t>新能源材料</t>
   </si>
   <si>
     <t>中高档酒类</t>
@@ -467,88 +467,88 @@
     <t>锂电池设备</t>
   </si>
   <si>
-    <t>新能源材料</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
     <t>新能源产品及集成工程</t>
   </si>
   <si>
-    <t>加工、冶炼及贸易金</t>
+    <t>膜类产品</t>
   </si>
   <si>
     <t>液体乳</t>
   </si>
   <si>
+    <t>EVA胶膜</t>
+  </si>
+  <si>
     <t>太阳能电池组件</t>
   </si>
   <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>EVA胶膜</t>
-  </si>
-  <si>
-    <t>膜类产品</t>
-  </si>
-  <si>
-    <t>61.09%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>9.78%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>44.06%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>29.00%</t>
-  </si>
-  <si>
-    <t>7.55%</t>
-  </si>
-  <si>
-    <t>-13.35%</t>
-  </si>
-  <si>
-    <t>-39.72%</t>
-  </si>
-  <si>
-    <t>-8.67%</t>
-  </si>
-  <si>
-    <t>47.51%</t>
-  </si>
-  <si>
-    <t>41.70%</t>
-  </si>
-  <si>
-    <t>61.61%</t>
+    <t>晶体硅生长设备</t>
+  </si>
+  <si>
+    <t>酱油</t>
+  </si>
+  <si>
+    <t>生猪</t>
+  </si>
+  <si>
+    <t>74.57%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>8.06%</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
+  </si>
+  <si>
+    <t>41.34%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>36.65%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
+  </si>
+  <si>
+    <t>-19.50%</t>
+  </si>
+  <si>
+    <t>-47.82%</t>
+  </si>
+  <si>
+    <t>57.25%</t>
+  </si>
+  <si>
+    <t>-7.51%</t>
+  </si>
+  <si>
+    <t>75.60%</t>
+  </si>
+  <si>
+    <t>-23.57%</t>
+  </si>
+  <si>
+    <t>7.27%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -557,46 +557,34 @@
     <t>标签占比</t>
   </si>
   <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
     <t>食品饮料</t>
   </si>
   <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
     <t>锂电池</t>
   </si>
   <si>
+    <t>化工</t>
+  </si>
+  <si>
     <t>饲料养殖</t>
   </si>
   <si>
-    <t>化工</t>
-  </si>
-  <si>
-    <t>电气设备</t>
-  </si>
-  <si>
-    <t>有色金属</t>
-  </si>
-  <si>
-    <t>35.09%</t>
-  </si>
-  <si>
-    <t>32.24%</t>
-  </si>
-  <si>
-    <t>13.29%</t>
-  </si>
-  <si>
-    <t>7.48%</t>
-  </si>
-  <si>
-    <t>4.98%</t>
-  </si>
-  <si>
-    <t>3.54%</t>
-  </si>
-  <si>
-    <t>3.38%</t>
+    <t>23.12%</t>
+  </si>
+  <si>
+    <t>22.15%</t>
+  </si>
+  <si>
+    <t>4.34%</t>
+  </si>
+  <si>
+    <t>2.65%</t>
+  </si>
+  <si>
+    <t>1.34%</t>
   </si>
 </sst>
 </file>
@@ -960,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1032,19 +1020,19 @@
         <v>1.02686009883611</v>
       </c>
       <c r="C3">
+        <v>1.039420956763494</v>
+      </c>
+      <c r="D3">
         <v>1.056768131545464</v>
-      </c>
-      <c r="D3">
-        <v>1.053756818581735</v>
       </c>
       <c r="E3">
         <v>1.035618479880775</v>
       </c>
       <c r="F3">
-        <v>1.039420956763494</v>
+        <v>1.053756818581735</v>
       </c>
       <c r="G3">
-        <v>1.044338056343144</v>
+        <v>1.04474818710825</v>
       </c>
       <c r="H3">
         <v>1.018168368380631</v>
@@ -1061,19 +1049,19 @@
         <v>1.061330056224159</v>
       </c>
       <c r="C4">
+        <v>1.092186751030582</v>
+      </c>
+      <c r="D4">
         <v>1.068219633943428</v>
-      </c>
-      <c r="D4">
-        <v>1.055076544078832</v>
       </c>
       <c r="E4">
         <v>1.088040238450074</v>
       </c>
       <c r="F4">
-        <v>1.092186751030582</v>
+        <v>1.055076544078832</v>
       </c>
       <c r="G4">
-        <v>1.069936160138813</v>
+        <v>1.072224605551907</v>
       </c>
       <c r="H4">
         <v>1.027111201157197</v>
@@ -1090,19 +1078,19 @@
         <v>1.068998328826082</v>
       </c>
       <c r="C5">
+        <v>1.100853225961078</v>
+      </c>
+      <c r="D5">
         <v>1.073407066653616</v>
-      </c>
-      <c r="D5">
-        <v>1.053580855182122</v>
       </c>
       <c r="E5">
         <v>1.090089418777943</v>
       </c>
       <c r="F5">
-        <v>1.100853225961078</v>
+        <v>1.053580855182122</v>
       </c>
       <c r="G5">
-        <v>1.073396135823588</v>
+        <v>1.076804691512921</v>
       </c>
       <c r="H5">
         <v>1.025290909062353</v>
@@ -1119,19 +1107,19 @@
         <v>1.104638764970133</v>
       </c>
       <c r="C6">
+        <v>1.115156744319816</v>
+      </c>
+      <c r="D6">
         <v>1.115102280512871</v>
-      </c>
-      <c r="D6">
-        <v>1.095284180890375</v>
       </c>
       <c r="E6">
         <v>1.101304023845007</v>
       </c>
       <c r="F6">
-        <v>1.115156744319816</v>
+        <v>1.095284180890375</v>
       </c>
       <c r="G6">
-        <v>1.10451578417313</v>
+        <v>1.107786042929877</v>
       </c>
       <c r="H6">
         <v>1.026858339183711</v>
@@ -1148,19 +1136,19 @@
         <v>1.101586266493641</v>
       </c>
       <c r="C7">
+        <v>1.084306394401304</v>
+      </c>
+      <c r="D7">
         <v>1.111187236958011</v>
-      </c>
-      <c r="D7">
-        <v>1.071969030441668</v>
       </c>
       <c r="E7">
         <v>1.069932935916542</v>
       </c>
       <c r="F7">
-        <v>1.084306394401304</v>
+        <v>1.071969030441668</v>
       </c>
       <c r="G7">
-        <v>1.085370765134976</v>
+        <v>1.091707364997389</v>
       </c>
       <c r="H7">
         <v>1.029917812005761</v>
@@ -1177,19 +1165,19 @@
         <v>1.089209983403007</v>
       </c>
       <c r="C8">
+        <v>1.04889272361231</v>
+      </c>
+      <c r="D8">
         <v>1.063717333855339</v>
-      </c>
-      <c r="D8">
-        <v>1.02841808903748</v>
       </c>
       <c r="E8">
         <v>1.034239940387481</v>
       </c>
       <c r="F8">
-        <v>1.04889272361231</v>
+        <v>1.02841808903748</v>
       </c>
       <c r="G8">
-        <v>1.049092502876253</v>
+        <v>1.054842755219984</v>
       </c>
       <c r="H8">
         <v>1.013866573688848</v>
@@ -1206,19 +1194,19 @@
         <v>1.110335048647452</v>
       </c>
       <c r="C9">
+        <v>1.072265362860704</v>
+      </c>
+      <c r="D9">
         <v>1.08808847998434</v>
-      </c>
-      <c r="D9">
-        <v>1.064666549357733</v>
       </c>
       <c r="E9">
         <v>1.066318926974665</v>
       </c>
       <c r="F9">
-        <v>1.072265362860704</v>
+        <v>1.064666549357733</v>
       </c>
       <c r="G9">
-        <v>1.077938368978293</v>
+        <v>1.081723871946064</v>
       </c>
       <c r="H9">
         <v>1.027660901099557</v>
@@ -1235,19 +1223,19 @@
         <v>1.110259492098048</v>
       </c>
       <c r="C10">
+        <v>1.060147636851692</v>
+      </c>
+      <c r="D10">
         <v>1.05392972496819</v>
-      </c>
-      <c r="D10">
-        <v>1.056220306176315</v>
       </c>
       <c r="E10">
         <v>1.053390461997019</v>
       </c>
       <c r="F10">
-        <v>1.060147636851692</v>
+        <v>1.056220306176315</v>
       </c>
       <c r="G10">
-        <v>1.065198654249482</v>
+        <v>1.064851797909559</v>
       </c>
       <c r="H10">
         <v>1.020386015005238</v>
@@ -1264,19 +1252,19 @@
         <v>1.087347257669719</v>
       </c>
       <c r="C11">
+        <v>1.033074489502445</v>
+      </c>
+      <c r="D11">
         <v>1.032984241949692</v>
-      </c>
-      <c r="D11">
-        <v>1.028506070737287</v>
       </c>
       <c r="E11">
         <v>1.016467958271237</v>
       </c>
       <c r="F11">
-        <v>1.033074489502445</v>
+        <v>1.028506070737287</v>
       </c>
       <c r="G11">
-        <v>1.038037862161262</v>
+        <v>1.038777211649073</v>
       </c>
       <c r="H11">
         <v>1.011430617658561</v>
@@ -1293,19 +1281,19 @@
         <v>1.091761509106276</v>
       </c>
       <c r="C12">
+        <v>1.012616240053686</v>
+      </c>
+      <c r="D12">
         <v>1.043750611725555</v>
-      </c>
-      <c r="D12">
-        <v>1.02569065634348</v>
       </c>
       <c r="E12">
         <v>0.9874068554396422</v>
       </c>
       <c r="F12">
-        <v>1.012616240053686</v>
+        <v>1.02569065634348</v>
       </c>
       <c r="G12">
-        <v>1.031518787891159</v>
+        <v>1.034343008670842</v>
       </c>
       <c r="H12">
         <v>1.007914108598721</v>
@@ -1322,19 +1310,19 @@
         <v>1.137076676849913</v>
       </c>
       <c r="C13">
+        <v>1.010622183874988</v>
+      </c>
+      <c r="D13">
         <v>1.059508662033865</v>
-      </c>
-      <c r="D13">
-        <v>1.045046630300897</v>
       </c>
       <c r="E13">
         <v>0.9735096870342771</v>
       </c>
       <c r="F13">
-        <v>1.010622183874988</v>
+        <v>1.045046630300897</v>
       </c>
       <c r="G13">
-        <v>1.045666654309567</v>
+        <v>1.047808457154713</v>
       </c>
       <c r="H13">
         <v>1.023142367573358</v>
@@ -1351,19 +1339,19 @@
         <v>1.121004392227605</v>
       </c>
       <c r="C14">
+        <v>0.9903556705972582</v>
+      </c>
+      <c r="D14">
         <v>1.022413624351571</v>
-      </c>
-      <c r="D14">
-        <v>1.016892486362836</v>
       </c>
       <c r="E14">
         <v>0.9570789865871833</v>
       </c>
       <c r="F14">
-        <v>0.9903556705972582</v>
+        <v>1.016892486362836</v>
       </c>
       <c r="G14">
-        <v>1.021282301753629</v>
+        <v>1.022032999752998</v>
       </c>
       <c r="H14">
         <v>1.017160061629216</v>
@@ -1380,19 +1368,19 @@
         <v>1.139172989380303</v>
       </c>
       <c r="C15">
+        <v>0.9969322212635414</v>
+      </c>
+      <c r="D15">
         <v>1.053146716257218</v>
-      </c>
-      <c r="D15">
-        <v>1.051029385887735</v>
       </c>
       <c r="E15">
         <v>0.9667287630402384</v>
       </c>
       <c r="F15">
-        <v>0.9969322212635414</v>
+        <v>1.051029385887735</v>
       </c>
       <c r="G15">
-        <v>1.043538109711455</v>
+        <v>1.043606396747451</v>
       </c>
       <c r="H15">
         <v>1.026434284942462</v>
@@ -1409,19 +1397,19 @@
         <v>1.171715167447518</v>
       </c>
       <c r="C16">
+        <v>1.018962707314735</v>
+      </c>
+      <c r="D16">
         <v>1.090535382206127</v>
-      </c>
-      <c r="D16">
-        <v>1.095284180890375</v>
       </c>
       <c r="E16">
         <v>0.9926602086438151</v>
       </c>
       <c r="F16">
-        <v>1.018962707314735</v>
+        <v>1.095284180890375</v>
       </c>
       <c r="G16">
-        <v>1.077944154268104</v>
+        <v>1.076802739110746</v>
       </c>
       <c r="H16">
         <v>1.04011081950838</v>
@@ -1438,19 +1426,19 @@
         <v>1.189923116005769</v>
       </c>
       <c r="C17">
+        <v>1.017850637522769</v>
+      </c>
+      <c r="D17">
         <v>1.10061661935989</v>
-      </c>
-      <c r="D17">
-        <v>1.131180714411402</v>
       </c>
       <c r="E17">
         <v>0.9887108792846497</v>
       </c>
       <c r="F17">
-        <v>1.017850637522769</v>
+        <v>1.131180714411402</v>
       </c>
       <c r="G17">
-        <v>1.093764041041149</v>
+        <v>1.088307135448464</v>
       </c>
       <c r="H17">
         <v>1.042515364113389</v>
@@ -1467,19 +1455,19 @@
         <v>1.200397044346235</v>
       </c>
       <c r="C18">
+        <v>1.056293739814016</v>
+      </c>
+      <c r="D18">
         <v>1.116178917490457</v>
-      </c>
-      <c r="D18">
-        <v>1.131444659510822</v>
       </c>
       <c r="E18">
         <v>1.046758569299553</v>
       </c>
       <c r="F18">
-        <v>1.056293739814016</v>
+        <v>1.131444659510822</v>
       </c>
       <c r="G18">
-        <v>1.114198282154548</v>
+        <v>1.111380008832805</v>
       </c>
       <c r="H18">
         <v>1.043693292561303</v>
@@ -1496,19 +1484,19 @@
         <v>1.176236507453332</v>
       </c>
       <c r="C19">
+        <v>1.047569744032212</v>
+      </c>
+      <c r="D19">
         <v>1.09601644318293</v>
-      </c>
-      <c r="D19">
-        <v>1.11516804504663</v>
       </c>
       <c r="E19">
         <v>1.02306259314456</v>
       </c>
       <c r="F19">
-        <v>1.047569744032212</v>
+        <v>1.11516804504663</v>
       </c>
       <c r="G19">
-        <v>1.09594279210772</v>
+        <v>1.092540544304456</v>
       </c>
       <c r="H19">
         <v>1.026047924411546</v>
@@ -1525,19 +1513,19 @@
         <v>1.179505797241663</v>
       </c>
       <c r="C20">
+        <v>1.038577317610967</v>
+      </c>
+      <c r="D20">
         <v>1.089262993050798</v>
-      </c>
-      <c r="D20">
-        <v>1.159246876649657</v>
       </c>
       <c r="E20">
         <v>0.9937406855439641</v>
       </c>
       <c r="F20">
-        <v>1.038577317610967</v>
+        <v>1.159246876649657</v>
       </c>
       <c r="G20">
-        <v>1.103574634164669</v>
+        <v>1.091773864993658</v>
       </c>
       <c r="H20">
         <v>1.02984870687015</v>
@@ -1554,19 +1542,19 @@
         <v>1.129671695457043</v>
       </c>
       <c r="C21">
+        <v>1.019384526890998</v>
+      </c>
+      <c r="D21">
         <v>1.049133796613487</v>
-      </c>
-      <c r="D21">
-        <v>1.100651064578567</v>
       </c>
       <c r="E21">
         <v>0.9790983606557376</v>
       </c>
       <c r="F21">
-        <v>1.019384526890998</v>
+        <v>1.100651064578567</v>
       </c>
       <c r="G21">
-        <v>1.063361461408129</v>
+        <v>1.054712365845278</v>
       </c>
       <c r="H21">
         <v>1.007424090364388</v>
@@ -1583,19 +1571,19 @@
         <v>1.126820881609365</v>
       </c>
       <c r="C22">
+        <v>1.017716422203049</v>
+      </c>
+      <c r="D22">
         <v>1.036312028971322</v>
-      </c>
-      <c r="D22">
-        <v>1.077951786028506</v>
       </c>
       <c r="E22">
         <v>0.9960134128166913</v>
       </c>
       <c r="F22">
-        <v>1.017716422203049</v>
+        <v>1.077951786028506</v>
       </c>
       <c r="G22">
-        <v>1.055722106966381</v>
+        <v>1.048758569018104</v>
       </c>
       <c r="H22">
         <v>0.9967065120596316</v>
@@ -1612,19 +1600,19 @@
         <v>1.181885967353556</v>
       </c>
       <c r="C23">
+        <v>1.020975937110536</v>
+      </c>
+      <c r="D23">
         <v>1.048155035724772</v>
-      </c>
-      <c r="D23">
-        <v>1.048917825092381</v>
       </c>
       <c r="E23">
         <v>0.9940760059612518</v>
       </c>
       <c r="F23">
-        <v>1.020975937110536</v>
+        <v>1.048917825092381</v>
       </c>
       <c r="G23">
-        <v>1.057733423410647</v>
+        <v>1.05747166767192</v>
       </c>
       <c r="H23">
         <v>1.004110184997589</v>
@@ -1641,19 +1629,19 @@
         <v>1.211941835244988</v>
       </c>
       <c r="C24">
+        <v>1.052324801073723</v>
+      </c>
+      <c r="D24">
         <v>1.078790251541548</v>
-      </c>
-      <c r="D24">
-        <v>1.067569945451346</v>
       </c>
       <c r="E24">
         <v>1.036587183308495</v>
       </c>
       <c r="F24">
-        <v>1.052324801073723</v>
+        <v>1.067569945451346</v>
       </c>
       <c r="G24">
-        <v>1.086393014175721</v>
+        <v>1.088112037428266</v>
       </c>
       <c r="H24">
         <v>1.013770768841751</v>
@@ -1670,19 +1658,19 @@
         <v>1.205280296984896</v>
       </c>
       <c r="C25">
+        <v>1.058441184929537</v>
+      </c>
+      <c r="D25">
         <v>1.084564940784966</v>
-      </c>
-      <c r="D25">
-        <v>1.064666549357733</v>
       </c>
       <c r="E25">
         <v>1.039456035767511</v>
       </c>
       <c r="F25">
-        <v>1.058441184929537</v>
+        <v>1.064666549357733</v>
       </c>
       <c r="G25">
-        <v>1.086766693123942</v>
+        <v>1.089919308930158</v>
       </c>
       <c r="H25">
         <v>1.00506038061224</v>
@@ -1699,19 +1687,19 @@
         <v>1.21061140609628</v>
       </c>
       <c r="C26">
+        <v>1.061355574729173</v>
+      </c>
+      <c r="D26">
         <v>1.040227072526182</v>
-      </c>
-      <c r="D26">
-        <v>1.060355446067218</v>
       </c>
       <c r="E26">
         <v>1.046535022354694</v>
       </c>
       <c r="F26">
-        <v>1.061355574729173</v>
+        <v>1.060355446067218</v>
       </c>
       <c r="G26">
-        <v>1.080361787086838</v>
+        <v>1.077146247963582</v>
       </c>
       <c r="H26">
         <v>0.9939815709167896</v>
@@ -1728,19 +1716,19 @@
         <v>1.151182085222883</v>
       </c>
       <c r="C27">
+        <v>1.071134119451635</v>
+      </c>
+      <c r="D27">
         <v>0.9885484976020358</v>
-      </c>
-      <c r="D27">
-        <v>1.05806792187225</v>
       </c>
       <c r="E27">
         <v>1.057190760059612</v>
       </c>
       <c r="F27">
-        <v>1.071134119451635</v>
+        <v>1.05806792187225</v>
       </c>
       <c r="G27">
-        <v>1.064090218417435</v>
+        <v>1.053032441522097</v>
       </c>
       <c r="H27">
         <v>0.9800160512383169</v>
@@ -1757,19 +1745,19 @@
         <v>1.210158552619677</v>
       </c>
       <c r="C28">
+        <v>1.092436008052919</v>
+      </c>
+      <c r="D28">
         <v>1.028873446217089</v>
-      </c>
-      <c r="D28">
-        <v>1.059827555868379</v>
       </c>
       <c r="E28">
         <v>1.058271236959761</v>
       </c>
       <c r="F28">
-        <v>1.092436008052919</v>
+        <v>1.059827555868379</v>
       </c>
       <c r="G28">
-        <v>1.085245228665908</v>
+        <v>1.080455613382624</v>
       </c>
       <c r="H28">
         <v>0.9930973392952219</v>
@@ -1786,19 +1774,19 @@
         <v>1.265070188703061</v>
       </c>
       <c r="C29">
+        <v>1.118895599654875</v>
+      </c>
+      <c r="D29">
         <v>1.080062640696878</v>
-      </c>
-      <c r="D29">
-        <v>1.096427942987859</v>
       </c>
       <c r="E29">
         <v>1.085208643815201</v>
       </c>
       <c r="F29">
-        <v>1.118895599654875</v>
+        <v>1.096427942987859</v>
       </c>
       <c r="G29">
-        <v>1.124171002356545</v>
+        <v>1.121664892273324</v>
       </c>
       <c r="H29">
         <v>1.014256075362292</v>
@@ -1815,19 +1803,19 @@
         <v>1.293885689187007</v>
       </c>
       <c r="C30">
+        <v>1.157530438117151</v>
+      </c>
+      <c r="D30">
         <v>1.108936086913967</v>
-      </c>
-      <c r="D30">
-        <v>1.123174379729016</v>
       </c>
       <c r="E30">
         <v>1.13349478390462</v>
       </c>
       <c r="F30">
-        <v>1.157530438117151</v>
+        <v>1.123174379729016</v>
       </c>
       <c r="G30">
-        <v>1.157146408881333</v>
+        <v>1.155040062322866</v>
       </c>
       <c r="H30">
         <v>1.024824449396979</v>
@@ -1844,19 +1832,19 @@
         <v>1.3124880540376</v>
       </c>
       <c r="C31">
+        <v>1.122423545201802</v>
+      </c>
+      <c r="D31">
         <v>1.181070764412254</v>
-      </c>
-      <c r="D31">
-        <v>1.114464191448179</v>
       </c>
       <c r="E31">
         <v>1.091356184798808</v>
       </c>
       <c r="F31">
-        <v>1.122423545201802</v>
+        <v>1.114464191448179</v>
       </c>
       <c r="G31">
-        <v>1.156951837764475</v>
+        <v>1.167648686207495</v>
       </c>
       <c r="H31">
         <v>1.038860644782327</v>
@@ -1873,19 +1861,19 @@
         <v>1.281372034758234</v>
       </c>
       <c r="C32">
+        <v>1.140101620170645</v>
+      </c>
+      <c r="D32">
         <v>1.197513947342664</v>
-      </c>
-      <c r="D32">
-        <v>1.093612528594053</v>
       </c>
       <c r="E32">
         <v>1.089269746646796</v>
       </c>
       <c r="F32">
-        <v>1.140101620170645</v>
+        <v>1.093612528594053</v>
       </c>
       <c r="G32">
-        <v>1.150149026918068</v>
+        <v>1.167005699375729</v>
       </c>
       <c r="H32">
         <v>1.052829305603327</v>
@@ -1902,19 +1890,19 @@
         <v>1.276114446379858</v>
       </c>
       <c r="C33">
+        <v>1.086760617390471</v>
+      </c>
+      <c r="D33">
         <v>1.254477831065871</v>
-      </c>
-      <c r="D33">
-        <v>1.058683793770896</v>
       </c>
       <c r="E33">
         <v>1.005104321907601</v>
       </c>
       <c r="F33">
-        <v>1.086760617390471</v>
+        <v>1.058683793770896</v>
       </c>
       <c r="G33">
-        <v>1.124724054094351</v>
+        <v>1.156191484179645</v>
       </c>
       <c r="H33">
         <v>1.045538713796369</v>
@@ -1931,19 +1919,19 @@
         <v>1.245324018918102</v>
       </c>
       <c r="C34">
+        <v>1.075927523727351</v>
+      </c>
+      <c r="D34">
         <v>1.237055887246746</v>
-      </c>
-      <c r="D34">
-        <v>1.04944571529122</v>
       </c>
       <c r="E34">
         <v>1.005774962742176</v>
       </c>
       <c r="F34">
-        <v>1.075927523727351</v>
+        <v>1.04944571529122</v>
       </c>
       <c r="G34">
-        <v>1.111802580361599</v>
+        <v>1.141952616916663</v>
       </c>
       <c r="H34">
         <v>1.041481928221752</v>
@@ -1960,19 +1948,19 @@
         <v>1.194330751039041</v>
       </c>
       <c r="C35">
+        <v>1.036755823986195</v>
+      </c>
+      <c r="D35">
         <v>1.182343153567583</v>
-      </c>
-      <c r="D35">
-        <v>1.015396797466127</v>
       </c>
       <c r="E35">
         <v>0.9494038748137108</v>
       </c>
       <c r="F35">
-        <v>1.036755823986195</v>
+        <v>1.015396797466127</v>
       </c>
       <c r="G35">
-        <v>1.066831857248933</v>
+        <v>1.093650069357766</v>
       </c>
       <c r="H35">
         <v>1.026555218929781</v>
@@ -1989,19 +1977,19 @@
         <v>1.194601190739756</v>
       </c>
       <c r="C36">
+        <v>1.026095292877001</v>
+      </c>
+      <c r="D36">
         <v>1.168934129392189</v>
-      </c>
-      <c r="D36">
-        <v>1.010909730775999</v>
       </c>
       <c r="E36">
         <v>0.9317436661698956</v>
       </c>
       <c r="F36">
-        <v>1.026095292877001</v>
+        <v>1.010909730775999</v>
       </c>
       <c r="G36">
-        <v>1.058444643821248</v>
+        <v>1.083804475410344</v>
       </c>
       <c r="H36">
         <v>1.020737822968348</v>
@@ -2018,19 +2006,19 @@
         <v>1.159340827636171</v>
       </c>
       <c r="C37">
+        <v>0.9980251174384047</v>
+      </c>
+      <c r="D37">
         <v>1.116766174023686</v>
-      </c>
-      <c r="D37">
-        <v>1.004487066690128</v>
       </c>
       <c r="E37">
         <v>0.9068926974664678</v>
       </c>
       <c r="F37">
-        <v>0.9980251174384047</v>
+        <v>1.004487066690128</v>
       </c>
       <c r="G37">
-        <v>1.032730361749222</v>
+        <v>1.050662709176333</v>
       </c>
       <c r="H37">
         <v>0.9995665223311676</v>
@@ -2047,19 +2035,19 @@
         <v>1.190366715771483</v>
       </c>
       <c r="C38">
+        <v>1.009395072380405</v>
+      </c>
+      <c r="D38">
         <v>1.158069883527454</v>
-      </c>
-      <c r="D38">
-        <v>1.029737814534577</v>
       </c>
       <c r="E38">
         <v>0.9116616989567808</v>
       </c>
       <c r="F38">
-        <v>1.009395072380405</v>
+        <v>1.029737814534577</v>
       </c>
       <c r="G38">
-        <v>1.056022067947865</v>
+        <v>1.076453485275955</v>
       </c>
       <c r="H38">
         <v>1.019055741144727</v>
@@ -2076,19 +2064,19 @@
         <v>1.162769466326001</v>
       </c>
       <c r="C39">
+        <v>0.9887067395264117</v>
+      </c>
+      <c r="D39">
         <v>1.119213076245473</v>
-      </c>
-      <c r="D39">
-        <v>1.020675699454513</v>
       </c>
       <c r="E39">
         <v>0.8868107302533531</v>
       </c>
       <c r="F39">
-        <v>0.9887067395264117</v>
+        <v>1.020675699454513</v>
       </c>
       <c r="G39">
-        <v>1.034220395570801</v>
+        <v>1.049826531057714</v>
       </c>
       <c r="H39">
         <v>1.010400322909452</v>
@@ -2105,19 +2093,19 @@
         <v>1.170250328148155</v>
       </c>
       <c r="C40">
+        <v>1.001974882561595</v>
+      </c>
+      <c r="D40">
         <v>1.160908290104727</v>
-      </c>
-      <c r="D40">
-        <v>1.014868907267288</v>
       </c>
       <c r="E40">
         <v>0.9073025335320417</v>
       </c>
       <c r="F40">
-        <v>1.001974882561595</v>
+        <v>1.014868907267288</v>
       </c>
       <c r="G40">
-        <v>1.046234478156645</v>
+        <v>1.069536309287107</v>
       </c>
       <c r="H40">
         <v>1.024758485403896</v>
@@ -2134,19 +2122,19 @@
         <v>1.115512939440801</v>
       </c>
       <c r="C41">
+        <v>0.9587958968459401</v>
+      </c>
+      <c r="D41">
         <v>1.115395908779485</v>
-      </c>
-      <c r="D41">
-        <v>0.9515220834066513</v>
       </c>
       <c r="E41">
         <v>0.8619597615499254</v>
       </c>
       <c r="F41">
-        <v>0.9587958968459401</v>
+        <v>0.9515220834066513</v>
       </c>
       <c r="G41">
-        <v>0.9936814753569615</v>
+        <v>1.019937656483811</v>
       </c>
       <c r="H41">
         <v>1.005478152568434</v>
@@ -2163,19 +2151,19 @@
         <v>1.109189416105186</v>
       </c>
       <c r="C42">
+        <v>0.9585849870578086</v>
+      </c>
+      <c r="D42">
         <v>1.077713614563962</v>
-      </c>
-      <c r="D42">
-        <v>0.9544254795002639</v>
       </c>
       <c r="E42">
         <v>0.8716095380029806</v>
       </c>
       <c r="F42">
-        <v>0.9585849870578086</v>
+        <v>0.9544254795002639</v>
       </c>
       <c r="G42">
-        <v>0.9887160200838725</v>
+        <v>1.008462919231852</v>
       </c>
       <c r="H42">
         <v>1.005715308829281</v>
@@ -2192,19 +2180,19 @@
         <v>1.07910777662893</v>
       </c>
       <c r="C43">
+        <v>0.908407631099607</v>
+      </c>
+      <c r="D43">
         <v>1.047861407458158</v>
-      </c>
-      <c r="D43">
-        <v>0.902692240014077</v>
       </c>
       <c r="E43">
         <v>0.8118479880774961</v>
       </c>
       <c r="F43">
-        <v>0.908407631099607</v>
+        <v>0.902692240014077</v>
       </c>
       <c r="G43">
-        <v>0.9433153776636723</v>
+        <v>0.9665710214101531</v>
       </c>
       <c r="H43">
         <v>0.9826137761087841</v>
@@ -2221,19 +2209,19 @@
         <v>1.035259831015209</v>
       </c>
       <c r="C44">
+        <v>0.8819863867318569</v>
+      </c>
+      <c r="D44">
         <v>1.030733091905647</v>
-      </c>
-      <c r="D44">
-        <v>0.872514516980468</v>
       </c>
       <c r="E44">
         <v>0.7886363636363635</v>
       </c>
       <c r="F44">
-        <v>0.8819863867318569</v>
+        <v>0.872514516980468</v>
       </c>
       <c r="G44">
-        <v>0.9148013413108564</v>
+        <v>0.9401636726476422</v>
       </c>
       <c r="H44">
         <v>0.9593049279814547</v>
@@ -2250,19 +2238,19 @@
         <v>1.047741675812803</v>
       </c>
       <c r="C45">
+        <v>0.8959256063656409</v>
+      </c>
+      <c r="D45">
         <v>1.029852207105804</v>
-      </c>
-      <c r="D45">
-        <v>0.8790251627661446</v>
       </c>
       <c r="E45">
         <v>0.8135245901639344</v>
       </c>
       <c r="F45">
-        <v>0.8959256063656409</v>
+        <v>0.8790251627661446</v>
       </c>
       <c r="G45">
-        <v>0.925328546236371</v>
+        <v>0.949545375548714</v>
       </c>
       <c r="H45">
         <v>0.952121135020441</v>
@@ -2279,19 +2267,19 @@
         <v>1.075413440765215</v>
       </c>
       <c r="C46">
+        <v>0.9207554405138531</v>
+      </c>
+      <c r="D46">
         <v>1.093080160516786</v>
-      </c>
-      <c r="D46">
-        <v>0.9113144465951082</v>
       </c>
       <c r="E46">
         <v>0.8441505216095379</v>
       </c>
       <c r="F46">
-        <v>0.9207554405138531</v>
+        <v>0.9113144465951082</v>
       </c>
       <c r="G46">
-        <v>0.9605871633446854</v>
+        <v>0.9897168825417475</v>
       </c>
       <c r="H46">
         <v>0.9759262836671583</v>
@@ -2308,19 +2296,19 @@
         <v>1.09597699083295</v>
       </c>
       <c r="C47">
+        <v>0.919892627744224</v>
+      </c>
+      <c r="D47">
         <v>1.080160516785749</v>
-      </c>
-      <c r="D47">
-        <v>0.9279429878585254</v>
       </c>
       <c r="E47">
         <v>0.8434053651266765</v>
       </c>
       <c r="F47">
-        <v>0.919892627744224</v>
+        <v>0.9279429878585254</v>
       </c>
       <c r="G47">
-        <v>0.9671087311121909</v>
+        <v>0.9914232839399753</v>
       </c>
       <c r="H47">
         <v>0.9772691220977807</v>
@@ -2337,19 +2325,19 @@
         <v>1.065170022362981</v>
       </c>
       <c r="C48">
+        <v>0.885859457386636</v>
+      </c>
+      <c r="D48">
         <v>1.082411666829794</v>
-      </c>
-      <c r="D48">
-        <v>0.891870490937885</v>
       </c>
       <c r="E48">
         <v>0.8051415797317436</v>
       </c>
       <c r="F48">
-        <v>0.885859457386636</v>
+        <v>0.891870490937885</v>
       </c>
       <c r="G48">
-        <v>0.9384213202968064</v>
+        <v>0.9688778532717555</v>
       </c>
       <c r="H48">
         <v>0.9696502808966706</v>
@@ -2366,19 +2354,19 @@
         <v>1.076751110942694</v>
       </c>
       <c r="C49">
+        <v>0.9008340523439747</v>
+      </c>
+      <c r="D49">
         <v>1.059704414211608</v>
-      </c>
-      <c r="D49">
-        <v>0.8978532465247228</v>
       </c>
       <c r="E49">
         <v>0.8263412816691506</v>
       </c>
       <c r="F49">
-        <v>0.9008340523439747</v>
+        <v>0.8978532465247228</v>
       </c>
       <c r="G49">
-        <v>0.9444729407415555</v>
+        <v>0.9703840316005534</v>
       </c>
       <c r="H49">
         <v>0.9730065916875945</v>
@@ -2395,19 +2383,19 @@
         <v>1.089631327994035</v>
       </c>
       <c r="C50">
+        <v>0.9171316268814111</v>
+      </c>
+      <c r="D50">
         <v>1.065576979543897</v>
-      </c>
-      <c r="D50">
-        <v>0.9011965511173675</v>
       </c>
       <c r="E50">
         <v>0.8384873323397913</v>
       </c>
       <c r="F50">
-        <v>0.9171316268814111</v>
+        <v>0.9011965511173675</v>
       </c>
       <c r="G50">
-        <v>0.9534574024216783</v>
+        <v>0.9798379463487432</v>
       </c>
       <c r="H50">
         <v>0.9777371523344186</v>
@@ -2424,19 +2412,19 @@
         <v>1.112576575035959</v>
       </c>
       <c r="C51">
+        <v>0.9340044099319337</v>
+      </c>
+      <c r="D51">
         <v>1.065674855632769</v>
-      </c>
-      <c r="D51">
-        <v>0.9162414217842689</v>
       </c>
       <c r="E51">
         <v>0.8647168405365127</v>
       </c>
       <c r="F51">
-        <v>0.9340044099319337</v>
+        <v>0.9162414217842689</v>
       </c>
       <c r="G51">
-        <v>0.9694514187297862</v>
+        <v>0.9934495830862846</v>
       </c>
       <c r="H51">
         <v>0.9853544229642648</v>
@@ -2453,19 +2441,19 @@
         <v>1.070850574731789</v>
       </c>
       <c r="C52">
+        <v>0.9085034991851213</v>
+      </c>
+      <c r="D52">
         <v>1.042869726925712</v>
-      </c>
-      <c r="D52">
-        <v>0.8931022347351749</v>
       </c>
       <c r="E52">
         <v>0.8422131147540983</v>
       </c>
       <c r="F52">
-        <v>0.9085034991851213</v>
+        <v>0.8931022347351749</v>
       </c>
       <c r="G52">
-        <v>0.9429244300443542</v>
+        <v>0.9669642351170898</v>
       </c>
       <c r="H52">
         <v>0.9747907606433689</v>
@@ -2482,19 +2470,19 @@
         <v>1.060214128093845</v>
       </c>
       <c r="C53">
+        <v>0.9120506183491517</v>
+      </c>
+      <c r="D53">
         <v>1.046491142213957</v>
-      </c>
-      <c r="D53">
-        <v>0.9136019707900757</v>
       </c>
       <c r="E53">
         <v>0.8442622950819672</v>
       </c>
       <c r="F53">
-        <v>0.9120506183491517</v>
+        <v>0.9136019707900757</v>
       </c>
       <c r="G53">
-        <v>0.949420177029186</v>
+        <v>0.9706746876948026</v>
       </c>
       <c r="H53">
         <v>0.9903535512972134</v>
@@ -2511,19 +2499,19 @@
         <v>1.020175449433074</v>
       </c>
       <c r="C54">
+        <v>0.9101716038730707</v>
+      </c>
+      <c r="D54">
         <v>1.005970441421161</v>
-      </c>
-      <c r="D54">
-        <v>0.8989970086222066</v>
       </c>
       <c r="E54">
         <v>0.8527570789865871</v>
       </c>
       <c r="F54">
-        <v>0.9101716038730707</v>
+        <v>0.8989970086222066</v>
       </c>
       <c r="G54">
-        <v>0.9319970469623917</v>
+        <v>0.9491686691864786</v>
       </c>
       <c r="H54">
         <v>0.9767649687220733</v>
@@ -2540,19 +2528,19 @@
         <v>0.9741431653641376</v>
       </c>
       <c r="C55">
+        <v>0.9046879493816509</v>
+      </c>
+      <c r="D55">
         <v>0.9642752275619065</v>
-      </c>
-      <c r="D55">
-        <v>0.8793770895653704</v>
       </c>
       <c r="E55">
         <v>0.8531296572280178</v>
       </c>
       <c r="F55">
-        <v>0.9046879493816509</v>
+        <v>0.8793770895653704</v>
       </c>
       <c r="G55">
-        <v>0.9097654714445951</v>
+        <v>0.9234757278231224</v>
       </c>
       <c r="H55">
         <v>0.9647296811269164</v>
@@ -2569,19 +2557,19 @@
         <v>0.9976130746791589</v>
       </c>
       <c r="C56">
+        <v>0.903115712779216</v>
+      </c>
+      <c r="D56">
         <v>0.9700499168053244</v>
-      </c>
-      <c r="D56">
-        <v>0.8773535104698222</v>
       </c>
       <c r="E56">
         <v>0.8469448584202682</v>
       </c>
       <c r="F56">
-        <v>0.903115712779216</v>
+        <v>0.8773535104698222</v>
       </c>
       <c r="G56">
-        <v>0.9127893612553185</v>
+        <v>0.9277495972805457</v>
       </c>
       <c r="H56">
         <v>0.9670651205963146</v>
@@ -2598,19 +2586,19 @@
         <v>1.017505938915977</v>
       </c>
       <c r="C57">
+        <v>0.92347809414246</v>
+      </c>
+      <c r="D57">
         <v>1.003132034843887</v>
-      </c>
-      <c r="D57">
-        <v>0.909466830899173</v>
       </c>
       <c r="E57">
         <v>0.8766020864381519</v>
       </c>
       <c r="F57">
-        <v>0.92347809414246</v>
+        <v>0.909466830899173</v>
       </c>
       <c r="G57">
-        <v>0.9406457395317049</v>
+        <v>0.9557022284790758</v>
       </c>
       <c r="H57">
         <v>0.9818881721848689</v>
@@ -2627,19 +2615,19 @@
         <v>1.029999165777963</v>
       </c>
       <c r="C58">
+        <v>0.930955804812578</v>
+      </c>
+      <c r="D58">
         <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0.9016364596163997</v>
       </c>
       <c r="E58">
         <v>0.8956780923994038</v>
       </c>
       <c r="F58">
-        <v>0.930955804812578</v>
+        <v>0.9016364596163997</v>
       </c>
       <c r="G58">
-        <v>0.9440344828956427</v>
+        <v>0.9599192460829997</v>
       </c>
       <c r="H58">
         <v>0.9823829021329928</v>
@@ -2656,19 +2644,19 @@
         <v>1.045284792437646</v>
       </c>
       <c r="C59">
+        <v>0.9403700508100853</v>
+      </c>
+      <c r="D59">
         <v>1.01380052853088</v>
-      </c>
-      <c r="D59">
-        <v>0.9294386767552348</v>
       </c>
       <c r="E59">
         <v>0.8993666169895678</v>
       </c>
       <c r="F59">
-        <v>0.9403700508100853</v>
+        <v>0.9294386767552348</v>
       </c>
       <c r="G59">
-        <v>0.9603158180808197</v>
+        <v>0.9738683712351971</v>
       </c>
       <c r="H59">
         <v>0.9863752942857905</v>
@@ -2685,19 +2673,19 @@
         <v>1.023160511491466</v>
       </c>
       <c r="C60">
+        <v>0.9306682005560351</v>
+      </c>
+      <c r="D60">
         <v>0.9898208867573652</v>
-      </c>
-      <c r="D60">
-        <v>0.9236318845680098</v>
       </c>
       <c r="E60">
         <v>0.8858420268256334</v>
       </c>
       <c r="F60">
-        <v>0.9306682005560351</v>
+        <v>0.9236318845680098</v>
       </c>
       <c r="G60">
-        <v>0.94672954712772</v>
+        <v>0.957354969057957</v>
       </c>
       <c r="H60">
         <v>0.9822462624330348</v>
@@ -2714,19 +2702,19 @@
         <v>1.041828415749427</v>
       </c>
       <c r="C61">
+        <v>0.9459303997699168</v>
+      </c>
+      <c r="D61">
         <v>0.9985318586669276</v>
-      </c>
-      <c r="D61">
-        <v>0.9321661094492346</v>
       </c>
       <c r="E61">
         <v>0.906929955290611</v>
       </c>
       <c r="F61">
-        <v>0.9459303997699168</v>
+        <v>0.9321661094492346</v>
       </c>
       <c r="G61">
-        <v>0.9601980213540149</v>
+        <v>0.9708853626804491</v>
       </c>
       <c r="H61">
         <v>0.9912911823417532</v>
@@ -2743,19 +2731,19 @@
         <v>1.048781214559733</v>
       </c>
       <c r="C62">
+        <v>0.9727926373310326</v>
+      </c>
+      <c r="D62">
         <v>1.007047078398747</v>
-      </c>
-      <c r="D62">
-        <v>0.929878585254267</v>
       </c>
       <c r="E62">
         <v>0.947354694485842</v>
       </c>
       <c r="F62">
-        <v>0.9727926373310326</v>
+        <v>0.929878585254267</v>
       </c>
       <c r="G62">
-        <v>0.9731750526866341</v>
+        <v>0.9857365818501347</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2772,19 +2760,19 @@
         <v>1.043656648275379</v>
       </c>
       <c r="C63">
+        <v>0.964260377720257</v>
+      </c>
+      <c r="D63">
         <v>1.012528139375551</v>
-      </c>
-      <c r="D63">
-        <v>0.9511701566074255</v>
       </c>
       <c r="E63">
         <v>0.9347988077496273</v>
       </c>
       <c r="F63">
-        <v>0.964260377720257</v>
+        <v>0.9511701566074255</v>
       </c>
       <c r="G63">
-        <v>0.9767823311836394</v>
+        <v>0.9866650595321036</v>
       </c>
       <c r="H63">
         <v>0.9962290583954103</v>
@@ -2801,19 +2789,19 @@
         <v>1.04392928573243</v>
       </c>
       <c r="C64">
+        <v>0.9411369954942</v>
+      </c>
+      <c r="D64">
         <v>1.024664774395615</v>
-      </c>
-      <c r="D64">
-        <v>0.934453633644202</v>
       </c>
       <c r="E64">
         <v>0.8970566318926975</v>
       </c>
       <c r="F64">
-        <v>0.9411369954942</v>
+        <v>0.934453633644202</v>
       </c>
       <c r="G64">
-        <v>0.9633326378431923</v>
+        <v>0.9777998371726685</v>
       </c>
       <c r="H64">
         <v>0.9970112028848254</v>
@@ -2830,19 +2818,19 @@
         <v>1.049096835503861</v>
       </c>
       <c r="C65">
+        <v>0.9526028185217142</v>
+      </c>
+      <c r="D65">
         <v>1.037584418126652</v>
-      </c>
-      <c r="D65">
-        <v>0.9263593172620094</v>
       </c>
       <c r="E65">
         <v>0.9143442622950819</v>
       </c>
       <c r="F65">
-        <v>0.9526028185217142</v>
+        <v>0.9263593172620094</v>
       </c>
       <c r="G65">
-        <v>0.9684806561484216</v>
+        <v>0.9864078897930629</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2859,19 +2847,19 @@
         <v>1.028702859688156</v>
       </c>
       <c r="C66">
+        <v>0.9340235835490367</v>
+      </c>
+      <c r="D66">
         <v>1.035039639815993</v>
-      </c>
-      <c r="D66">
-        <v>0.9106105929966566</v>
       </c>
       <c r="E66">
         <v>0.8903129657228018</v>
       </c>
       <c r="F66">
-        <v>0.9340235835490367</v>
+        <v>0.9106105929966566</v>
       </c>
       <c r="G66">
-        <v>0.9523532512344555</v>
+        <v>0.9723789636783111</v>
       </c>
       <c r="H66">
         <v>0.9949945893819959</v>
@@ -2888,19 +2876,19 @@
         <v>0.9884542143273263</v>
       </c>
       <c r="C67">
+        <v>0.9243600805291918</v>
+      </c>
+      <c r="D67">
         <v>0.9920720368014094</v>
-      </c>
-      <c r="D67">
-        <v>0.8857997536512404</v>
       </c>
       <c r="E67">
         <v>0.8872578241430701</v>
       </c>
       <c r="F67">
-        <v>0.9243600805291918</v>
+        <v>0.8857997536512404</v>
       </c>
       <c r="G67">
-        <v>0.9279203356677177</v>
+        <v>0.9451167026061345</v>
       </c>
       <c r="H67">
         <v>0.9779036328883906</v>
@@ -2917,19 +2905,19 @@
         <v>0.9941718740767979</v>
       </c>
       <c r="C68">
+        <v>0.9329306873741733</v>
+      </c>
+      <c r="D68">
         <v>0.9850249584026621</v>
-      </c>
-      <c r="D68">
-        <v>0.8802569065634347</v>
       </c>
       <c r="E68">
         <v>0.8989195230998509</v>
       </c>
       <c r="F68">
-        <v>0.9329306873741733</v>
+        <v>0.8802569065634347</v>
       </c>
       <c r="G68">
-        <v>0.9292035254156558</v>
+        <v>0.9462297826139858</v>
       </c>
       <c r="H68">
         <v>0.9752902023052845</v>
@@ -2946,19 +2934,19 @@
         <v>1.00758346234163</v>
       </c>
       <c r="C69">
+        <v>0.9379733486722271</v>
+      </c>
+      <c r="D69">
         <v>1.008515219731819</v>
-      </c>
-      <c r="D69">
-        <v>0.8934541615344008</v>
       </c>
       <c r="E69">
         <v>0.9118852459016392</v>
       </c>
       <c r="F69">
-        <v>0.9379733486722271</v>
+        <v>0.8934541615344008</v>
       </c>
       <c r="G69">
-        <v>0.9428033173635266</v>
+        <v>0.9614356826108028</v>
       </c>
       <c r="H69">
         <v>0.9858805643376666</v>
@@ -2975,19 +2963,19 @@
         <v>1.008155989434298</v>
       </c>
       <c r="C70">
+        <v>0.9307257214073436</v>
+      </c>
+      <c r="D70">
         <v>1.024273270040129</v>
-      </c>
-      <c r="D70">
-        <v>0.8989090269224002</v>
       </c>
       <c r="E70">
         <v>0.9050670640834574</v>
       </c>
       <c r="F70">
-        <v>0.9307257214073436</v>
+        <v>0.8989090269224002</v>
       </c>
       <c r="G70">
-        <v>0.9450587626010269</v>
+        <v>0.9652761249722882</v>
       </c>
       <c r="H70">
         <v>0.9857627714928752</v>
@@ -3004,19 +2992,19 @@
         <v>1.00600246583634</v>
       </c>
       <c r="C71">
+        <v>0.9368037580289523</v>
+      </c>
+      <c r="D71">
         <v>1.01840070470784</v>
-      </c>
-      <c r="D71">
-        <v>0.8948618687313038</v>
       </c>
       <c r="E71">
         <v>0.9268256333830104</v>
       </c>
       <c r="F71">
-        <v>0.9368037580289523</v>
+        <v>0.8948618687313038</v>
       </c>
       <c r="G71">
-        <v>0.9469518052568148</v>
+        <v>0.9669277284595489</v>
       </c>
       <c r="H71">
         <v>0.9956777878817863</v>
@@ -3033,19 +3021,19 @@
         <v>1.037399867329547</v>
       </c>
       <c r="C72">
+        <v>0.9533122423545204</v>
+      </c>
+      <c r="D72">
         <v>1.056670255456592</v>
-      </c>
-      <c r="D72">
-        <v>0.9245996832658806</v>
       </c>
       <c r="E72">
         <v>0.9380402384500744</v>
       </c>
       <c r="F72">
-        <v>0.9533122423545204</v>
+        <v>0.9245996832658806</v>
       </c>
       <c r="G72">
-        <v>0.9731829756841424</v>
+        <v>0.9944578300300992</v>
       </c>
       <c r="H72">
         <v>1.009132871899496</v>
@@ -3062,19 +3050,19 @@
         <v>1.045566012711545</v>
       </c>
       <c r="C73">
+        <v>0.9631866551624966</v>
+      </c>
+      <c r="D73">
         <v>1.046784770480572</v>
-      </c>
-      <c r="D73">
-        <v>0.936037304240718</v>
       </c>
       <c r="E73">
         <v>0.9503353204172875</v>
       </c>
       <c r="F73">
-        <v>0.9631866551624966</v>
+        <v>0.936037304240718</v>
       </c>
       <c r="G73">
-        <v>0.9803230695127612</v>
+        <v>0.9981784108657467</v>
       </c>
       <c r="H73">
         <v>1.009648019274051</v>
@@ -3091,19 +3079,19 @@
         <v>1.044965215532113</v>
       </c>
       <c r="C74">
+        <v>0.9699165947656027</v>
+      </c>
+      <c r="D74">
         <v>1.039346187726339</v>
-      </c>
-      <c r="D74">
-        <v>0.9349815238430406</v>
       </c>
       <c r="E74">
         <v>0.9720566318926974</v>
       </c>
       <c r="F74">
-        <v>0.9699165947656027</v>
+        <v>0.9349815238430406</v>
       </c>
       <c r="G74">
-        <v>0.9833024238207597</v>
+        <v>1.0001754453967</v>
       </c>
       <c r="H74">
         <v>1.008347586267553</v>
@@ -3120,19 +3108,19 @@
         <v>1.04118637015371</v>
       </c>
       <c r="C75">
+        <v>0.9683060109289618</v>
+      </c>
+      <c r="D75">
         <v>1.043652735636684</v>
-      </c>
-      <c r="D75">
-        <v>0.9373570297378144</v>
       </c>
       <c r="E75">
         <v>0.9710134128166914</v>
       </c>
       <c r="F75">
-        <v>0.9683060109289618</v>
+        <v>0.9373570297378144</v>
       </c>
       <c r="G75">
-        <v>0.9837381727158786</v>
+        <v>1.000900230565653</v>
       </c>
       <c r="H75">
         <v>1.012306996423809</v>
@@ -3149,19 +3137,19 @@
         <v>1.053591941239306</v>
       </c>
       <c r="C76">
+        <v>0.9826478765219059</v>
+      </c>
+      <c r="D76">
         <v>1.055006361945777</v>
-      </c>
-      <c r="D76">
-        <v>0.946067218018652</v>
       </c>
       <c r="E76">
         <v>0.9826751117734724</v>
       </c>
       <c r="F76">
-        <v>0.9826478765219059</v>
+        <v>0.946067218018652</v>
       </c>
       <c r="G76">
-        <v>0.9949421865563567</v>
+        <v>1.012555352877213</v>
       </c>
       <c r="H76">
         <v>1.015022514139068</v>
@@ -3178,19 +3166,19 @@
         <v>1.058537054935256</v>
       </c>
       <c r="C77">
+        <v>0.9628990509059535</v>
+      </c>
+      <c r="D77">
         <v>1.06313007732211</v>
-      </c>
-      <c r="D77">
-        <v>0.9409642794298785</v>
       </c>
       <c r="E77">
         <v>0.96602086438152</v>
       </c>
       <c r="F77">
-        <v>0.9628990509059535</v>
+        <v>0.9409642794298785</v>
       </c>
       <c r="G77">
-        <v>0.9894734107180454</v>
+        <v>1.009129612238183</v>
       </c>
       <c r="H77">
         <v>1.011864095327393</v>
@@ -3207,19 +3195,19 @@
         <v>1.052217302486828</v>
       </c>
       <c r="C78">
+        <v>0.9706835394497172</v>
+      </c>
+      <c r="D78">
         <v>1.065479103455026</v>
-      </c>
-      <c r="D78">
-        <v>0.9388527186345239</v>
       </c>
       <c r="E78">
         <v>0.9794336810730253</v>
       </c>
       <c r="F78">
-        <v>0.9706835394497172</v>
+        <v>0.9388527186345239</v>
       </c>
       <c r="G78">
-        <v>0.9915991275457606</v>
+        <v>1.012018503221117</v>
       </c>
       <c r="H78">
         <v>1.012434212696184</v>
@@ -3236,19 +3224,19 @@
         <v>1.062599341478172</v>
       </c>
       <c r="C79">
+        <v>0.9790432365065671</v>
+      </c>
+      <c r="D79">
         <v>1.065870607810512</v>
-      </c>
-      <c r="D79">
-        <v>0.9543374978004574</v>
       </c>
       <c r="E79">
         <v>1.002272727272727</v>
       </c>
       <c r="F79">
-        <v>0.9790432365065671</v>
+        <v>0.9543374978004574</v>
       </c>
       <c r="G79">
-        <v>1.003688399676811</v>
+        <v>1.02165722597195</v>
       </c>
       <c r="H79">
         <v>1.019259915409032</v>
@@ -3265,19 +3253,19 @@
         <v>1.05600165382321</v>
       </c>
       <c r="C80">
+        <v>0.995398331895312</v>
+      </c>
+      <c r="D80">
         <v>1.076049721053147</v>
-      </c>
-      <c r="D80">
-        <v>0.9507302481083935</v>
       </c>
       <c r="E80">
         <v>1.002496274217586</v>
       </c>
       <c r="F80">
-        <v>0.995398331895312</v>
+        <v>0.9507302481083935</v>
       </c>
       <c r="G80">
-        <v>1.005842325613379</v>
+        <v>1.026116781703474</v>
       </c>
       <c r="H80">
         <v>1.019603870515823</v>
@@ -3294,19 +3282,19 @@
         <v>1.050084530335538</v>
       </c>
       <c r="C81">
+        <v>0.9877288850541657</v>
+      </c>
+      <c r="D81">
         <v>1.073798571009102</v>
-      </c>
-      <c r="D81">
-        <v>0.9735175083582615</v>
       </c>
       <c r="E81">
         <v>0.9933681073025334</v>
       </c>
       <c r="F81">
-        <v>0.9877288850541657</v>
+        <v>0.9735175083582615</v>
       </c>
       <c r="G81">
-        <v>1.009201908725671</v>
+        <v>1.025317935633285</v>
       </c>
       <c r="H81">
         <v>1.018626975189686</v>
@@ -3323,19 +3311,19 @@
         <v>1.061676769636872</v>
       </c>
       <c r="C82">
+        <v>0.9597162304668776</v>
+      </c>
+      <c r="D82">
         <v>1.10061661935989</v>
-      </c>
-      <c r="D82">
-        <v>0.9692943867675522</v>
       </c>
       <c r="E82">
         <v>0.9628912071535022</v>
       </c>
       <c r="F82">
-        <v>0.9597162304668776</v>
+        <v>0.9692943867675522</v>
       </c>
       <c r="G82">
-        <v>1.004687250970105</v>
+        <v>1.025650917403375</v>
       </c>
       <c r="H82">
         <v>1.01919866312974</v>
@@ -3352,19 +3340,19 @@
         <v>1.07032218784006</v>
       </c>
       <c r="C83">
+        <v>0.9463522193461796</v>
+      </c>
+      <c r="D83">
         <v>1.129587941665851</v>
-      </c>
-      <c r="D83">
-        <v>0.9435157487242654</v>
       </c>
       <c r="E83">
         <v>0.9475782414307004</v>
       </c>
       <c r="F83">
-        <v>0.9463522193461796</v>
+        <v>0.9435157487242654</v>
       </c>
       <c r="G83">
-        <v>0.9978434451231977</v>
+        <v>1.027629178346961</v>
       </c>
       <c r="H83">
         <v>1.012145227583629</v>
@@ -3381,19 +3369,19 @@
         <v>1.059070970919242</v>
       </c>
       <c r="C84">
+        <v>0.9288467069312627</v>
+      </c>
+      <c r="D84">
         <v>1.185181560144857</v>
-      </c>
-      <c r="D84">
-        <v>0.9534576808023931</v>
       </c>
       <c r="E84">
         <v>0.93301043219076</v>
       </c>
       <c r="F84">
-        <v>0.9288467069312627</v>
+        <v>0.9534576808023931</v>
       </c>
       <c r="G84">
-        <v>1.00337039290082</v>
+        <v>1.040323158726259</v>
       </c>
       <c r="H84">
         <v>1.017100379921189</v>
@@ -3410,19 +3398,19 @@
         <v>1.034243889231045</v>
       </c>
       <c r="C85">
+        <v>0.9523727351164799</v>
+      </c>
+      <c r="D85">
         <v>1.136341391797984</v>
-      </c>
-      <c r="D85">
-        <v>0.9448354742213619</v>
       </c>
       <c r="E85">
         <v>0.9653129657228017</v>
       </c>
       <c r="F85">
-        <v>0.9523727351164799</v>
+        <v>0.9448354742213619</v>
       </c>
       <c r="G85">
-        <v>0.9972133449064658</v>
+        <v>1.027891978023201</v>
       </c>
       <c r="H85">
         <v>1.013967090249737</v>
@@ -3439,19 +3427,19 @@
         <v>1.042232756646698</v>
       </c>
       <c r="C86">
+        <v>0.9638002109097882</v>
+      </c>
+      <c r="D86">
         <v>1.141920328863659</v>
-      </c>
-      <c r="D86">
-        <v>0.9505542847087806</v>
       </c>
       <c r="E86">
         <v>0.9804769001490313</v>
       </c>
       <c r="F86">
-        <v>0.9638002109097882</v>
+        <v>0.9505542847087806</v>
       </c>
       <c r="G86">
-        <v>1.005794661815363</v>
+        <v>1.036479458511149</v>
       </c>
       <c r="H86">
         <v>1.022763859898761</v>
@@ -3468,19 +3456,19 @@
         <v>1.01493366176604</v>
       </c>
       <c r="C87">
+        <v>0.9615952449429586</v>
+      </c>
+      <c r="D87">
         <v>1.084662816873838</v>
-      </c>
-      <c r="D87">
-        <v>0.932254091149041</v>
       </c>
       <c r="E87">
         <v>0.9859165424739195</v>
       </c>
       <c r="F87">
-        <v>0.9615952449429586</v>
+        <v>0.932254091149041</v>
       </c>
       <c r="G87">
-        <v>0.9859146963717477</v>
+        <v>1.010446798256685</v>
       </c>
       <c r="H87">
         <v>1.011295548529867</v>
@@ -3497,19 +3485,19 @@
         <v>1.029181924300851</v>
       </c>
       <c r="C88">
+        <v>0.9779311667146007</v>
+      </c>
+      <c r="D88">
         <v>1.089850249584027</v>
-      </c>
-      <c r="D88">
-        <v>0.945451346120007</v>
       </c>
       <c r="E88">
         <v>1.004470938897168</v>
       </c>
       <c r="F88">
-        <v>0.9779311667146007</v>
+        <v>0.945451346120007</v>
       </c>
       <c r="G88">
-        <v>0.9993307612059735</v>
+        <v>1.02259698486319</v>
       </c>
       <c r="H88">
         <v>1.024923395386604</v>
@@ -3526,19 +3514,19 @@
         <v>1.056542139941927</v>
       </c>
       <c r="C89">
+        <v>0.998868756590931</v>
+      </c>
+      <c r="D89">
         <v>1.121757854556132</v>
-      </c>
-      <c r="D89">
-        <v>0.9732535632588422</v>
       </c>
       <c r="E89">
         <v>1.023919523099851</v>
       </c>
       <c r="F89">
-        <v>0.998868756590931</v>
+        <v>0.9732535632588422</v>
       </c>
       <c r="G89">
-        <v>1.025244741089067</v>
+        <v>1.049133503663294</v>
       </c>
       <c r="H89">
         <v>1.033143765381782</v>
@@ -3555,19 +3543,19 @@
         <v>1.062286982467133</v>
       </c>
       <c r="C90">
+        <v>0.9968171795609243</v>
+      </c>
+      <c r="D90">
         <v>1.136047763531369</v>
-      </c>
-      <c r="D90">
-        <v>0.9691184233679394</v>
       </c>
       <c r="E90">
         <v>1.02876304023845</v>
       </c>
       <c r="F90">
-        <v>0.9968171795609243</v>
+        <v>0.9691184233679394</v>
       </c>
       <c r="G90">
-        <v>1.027746722798062</v>
+        <v>1.054593911005176</v>
       </c>
       <c r="H90">
         <v>1.036514211314081</v>
@@ -3584,19 +3572,19 @@
         <v>1.063405200890892</v>
       </c>
       <c r="C91">
+        <v>0.9916211293260475</v>
+      </c>
+      <c r="D91">
         <v>1.142311833219144</v>
-      </c>
-      <c r="D91">
-        <v>0.9848671476332922</v>
       </c>
       <c r="E91">
         <v>1.01795827123696</v>
       </c>
       <c r="F91">
-        <v>0.9916211293260475</v>
+        <v>0.9848671476332922</v>
       </c>
       <c r="G91">
-        <v>1.031558655610589</v>
+        <v>1.056783575212789</v>
       </c>
       <c r="H91">
         <v>1.034125372421711</v>
@@ -3613,19 +3601,19 @@
         <v>1.046147145755339</v>
       </c>
       <c r="C92">
+        <v>1.00274182724571</v>
+      </c>
+      <c r="D92">
         <v>1.107957326025252</v>
-      </c>
-      <c r="D92">
-        <v>0.9745732887559386</v>
       </c>
       <c r="E92">
         <v>1.040238450074515</v>
       </c>
       <c r="F92">
-        <v>1.00274182724571</v>
+        <v>0.9745732887559386</v>
       </c>
       <c r="G92">
-        <v>1.024898691249997</v>
+        <v>1.046380979905537</v>
       </c>
       <c r="H92">
         <v>1.028521574152166</v>
@@ -3642,19 +3630,19 @@
         <v>1.037479217900415</v>
       </c>
       <c r="C93">
+        <v>0.9942095676349344</v>
+      </c>
+      <c r="D93">
         <v>1.114221395713027</v>
-      </c>
-      <c r="D93">
-        <v>0.9789723737462608</v>
       </c>
       <c r="E93">
         <v>1.041207153502235</v>
       </c>
       <c r="F93">
-        <v>0.9942095676349344</v>
+        <v>0.9789723737462608</v>
       </c>
       <c r="G93">
-        <v>1.024693746638184</v>
+        <v>1.046409776122311</v>
       </c>
       <c r="H93">
         <v>1.025246933066964</v>
@@ -3671,19 +3659,19 @@
         <v>1.043417971937289</v>
       </c>
       <c r="C94">
+        <v>1.001994056178698</v>
+      </c>
+      <c r="D94">
         <v>1.106195556425565</v>
-      </c>
-      <c r="D94">
-        <v>0.9773887031497448</v>
       </c>
       <c r="E94">
         <v>1.068405365126676</v>
       </c>
       <c r="F94">
-        <v>1.001994056178698</v>
+        <v>0.9773887031497448</v>
       </c>
       <c r="G94">
-        <v>1.029588476376488</v>
+        <v>1.050320599665764</v>
       </c>
       <c r="H94">
         <v>1.027800681942043</v>
@@ -3700,19 +3688,19 @@
         <v>1.069950512542225</v>
       </c>
       <c r="C95">
+        <v>1.034550858019365</v>
+      </c>
+      <c r="D95">
         <v>1.115493784868357</v>
-      </c>
-      <c r="D95">
-        <v>0.9863628365300017</v>
       </c>
       <c r="E95">
         <v>1.102906110283159</v>
       </c>
       <c r="F95">
-        <v>1.034550858019365</v>
+        <v>0.9863628365300017</v>
       </c>
       <c r="G95">
-        <v>1.049705666384616</v>
+        <v>1.0706075582262</v>
       </c>
       <c r="H95">
         <v>1.0396663478407</v>
@@ -3729,19 +3717,19 @@
         <v>1.083262947294888</v>
       </c>
       <c r="C96">
+        <v>1.029278113316077</v>
+      </c>
+      <c r="D96">
         <v>1.125477145933248</v>
-      </c>
-      <c r="D96">
-        <v>0.9736934717578744</v>
       </c>
       <c r="E96">
         <v>1.0924739195231</v>
       </c>
       <c r="F96">
-        <v>1.029278113316077</v>
+        <v>0.9736934717578744</v>
       </c>
       <c r="G96">
-        <v>1.046893746947346</v>
+        <v>1.071457058023197</v>
       </c>
       <c r="H96">
         <v>1.041007615700059</v>
@@ -3758,19 +3746,19 @@
         <v>1.097915064907148</v>
       </c>
       <c r="C97">
+        <v>1.030524398427763</v>
+      </c>
+      <c r="D97">
         <v>1.125672898110991</v>
-      </c>
-      <c r="D97">
-        <v>0.9847791659334858</v>
       </c>
       <c r="E97">
         <v>1.099478390461997</v>
       </c>
       <c r="F97">
-        <v>1.030524398427763</v>
+        <v>0.9847791659334858</v>
       </c>
       <c r="G97">
-        <v>1.054437538637945</v>
+        <v>1.077209261948817</v>
       </c>
       <c r="H97">
         <v>1.049991283329486</v>
@@ -3787,19 +3775,19 @@
         <v>1.09467263401467</v>
       </c>
       <c r="C98">
+        <v>1.02354520180232</v>
+      </c>
+      <c r="D98">
         <v>1.142996965841245</v>
-      </c>
-      <c r="D98">
-        <v>0.9952489882104522</v>
       </c>
       <c r="E98">
         <v>1.099850968703428</v>
       </c>
       <c r="F98">
-        <v>1.02354520180232</v>
+        <v>0.9952489882104522</v>
       </c>
       <c r="G98">
-        <v>1.059196366218403</v>
+        <v>1.082977523707289</v>
       </c>
       <c r="H98">
         <v>1.047283618470546</v>
@@ -3816,19 +3804,19 @@
         <v>1.105601775528016</v>
       </c>
       <c r="C99">
+        <v>1.024292972869332</v>
+      </c>
+      <c r="D99">
         <v>1.174415190368993</v>
-      </c>
-      <c r="D99">
-        <v>1.035192679922576</v>
       </c>
       <c r="E99">
         <v>1.103725782414307</v>
       </c>
       <c r="F99">
-        <v>1.024292972869332</v>
+        <v>1.035192679922576</v>
       </c>
       <c r="G99">
-        <v>1.080339563198742</v>
+        <v>1.102560666334903</v>
       </c>
       <c r="H99">
         <v>1.0568358328975</v>
@@ -3845,19 +3833,19 @@
         <v>1.138931189914788</v>
       </c>
       <c r="C100">
+        <v>1.031118780557952</v>
+      </c>
+      <c r="D100">
         <v>1.176079083879808</v>
-      </c>
-      <c r="D100">
-        <v>1.029297906035544</v>
       </c>
       <c r="E100">
         <v>1.112220566318927</v>
       </c>
       <c r="F100">
-        <v>1.031118780557952</v>
+        <v>1.029297906035544</v>
       </c>
       <c r="G100">
-        <v>1.086871047771496</v>
+        <v>1.11036514059919</v>
       </c>
       <c r="H100">
         <v>1.058527338148705</v>
@@ -3874,19 +3862,19 @@
         <v>1.139265433952078</v>
       </c>
       <c r="C101">
+        <v>1.022203048605119</v>
+      </c>
+      <c r="D101">
         <v>1.15914652050504</v>
-      </c>
-      <c r="D101">
-        <v>1.013285236670772</v>
       </c>
       <c r="E101">
         <v>1.098211624441133</v>
       </c>
       <c r="F101">
-        <v>1.022203048605119</v>
+        <v>1.013285236670772</v>
       </c>
       <c r="G101">
-        <v>1.074982581411697</v>
+        <v>1.098364975884851</v>
       </c>
       <c r="H101">
         <v>1.049366195966459</v>
@@ -3903,19 +3891,19 @@
         <v>1.123094689845917</v>
       </c>
       <c r="C102">
+        <v>1.024235452018023</v>
+      </c>
+      <c r="D102">
         <v>1.159440148771655</v>
-      </c>
-      <c r="D102">
-        <v>0.9834594404363891</v>
       </c>
       <c r="E102">
         <v>1.111251862891207</v>
       </c>
       <c r="F102">
-        <v>1.024235452018023</v>
+        <v>0.9834594404363891</v>
       </c>
       <c r="G102">
-        <v>1.064927944869019</v>
+        <v>1.09328873826057</v>
       </c>
       <c r="H102">
         <v>1.047214513334935</v>
@@ -3932,19 +3920,19 @@
         <v>1.133713855178777</v>
       </c>
       <c r="C103">
+        <v>1.033649698015531</v>
+      </c>
+      <c r="D103">
         <v>1.15581873348341</v>
-      </c>
-      <c r="D103">
-        <v>0.9824916417385183</v>
       </c>
       <c r="E103">
         <v>1.132786885245902</v>
       </c>
       <c r="F103">
-        <v>1.033649698015531</v>
+        <v>0.9824916417385183</v>
       </c>
       <c r="G103">
-        <v>1.070904818084419</v>
+        <v>1.098892943044987</v>
       </c>
       <c r="H103">
         <v>1.051192770346358</v>
@@ -3961,19 +3949,19 @@
         <v>1.137965287572252</v>
       </c>
       <c r="C104">
+        <v>1.02902885629374</v>
+      </c>
+      <c r="D104">
         <v>1.150533424684349</v>
-      </c>
-      <c r="D104">
-        <v>0.9783565018476157</v>
       </c>
       <c r="E104">
         <v>1.155663189269746</v>
       </c>
       <c r="F104">
-        <v>1.02902885629374</v>
+        <v>0.9783565018476157</v>
       </c>
       <c r="G104">
-        <v>1.072376614211311</v>
+        <v>1.100178283637419</v>
       </c>
       <c r="H104">
         <v>1.055659475020849</v>
@@ -3990,19 +3978,19 @@
         <v>1.118663666058374</v>
       </c>
       <c r="C105">
+        <v>0.9966637906241014</v>
+      </c>
+      <c r="D105">
         <v>1.124009004600176</v>
-      </c>
-      <c r="D105">
-        <v>0.9735175083582615</v>
       </c>
       <c r="E105">
         <v>1.08204172876304</v>
       </c>
       <c r="F105">
-        <v>0.9966637906241014</v>
+        <v>0.9735175083582615</v>
       </c>
       <c r="G105">
-        <v>1.045501542469058</v>
+        <v>1.069695913279094</v>
       </c>
       <c r="H105">
         <v>1.049857784772055</v>
@@ -4019,19 +4007,19 @@
         <v>1.134439161038213</v>
       </c>
       <c r="C106">
+        <v>1.001879014476081</v>
+      </c>
+      <c r="D106">
         <v>1.12753254379955</v>
-      </c>
-      <c r="D106">
-        <v>0.9815238430406474</v>
       </c>
       <c r="E106">
         <v>1.080849478390462</v>
       </c>
       <c r="F106">
-        <v>1.001879014476081</v>
+        <v>0.9815238430406474</v>
       </c>
       <c r="G106">
-        <v>1.052088259348813</v>
+        <v>1.075551427327414</v>
       </c>
       <c r="H106">
         <v>1.051167641206136</v>
@@ -4048,19 +4036,19 @@
         <v>1.146010625758602</v>
       </c>
       <c r="C107">
+        <v>1.008052919183204</v>
+      </c>
+      <c r="D107">
         <v>1.132719976509739</v>
-      </c>
-      <c r="D107">
-        <v>1.027538272039416</v>
       </c>
       <c r="E107">
         <v>1.095230998509687</v>
       </c>
       <c r="F107">
-        <v>1.008052919183204</v>
+        <v>1.027538272039416</v>
       </c>
       <c r="G107">
-        <v>1.073513678577952</v>
+        <v>1.090245324528923</v>
       </c>
       <c r="H107">
         <v>1.062591976579641</v>
@@ -4077,19 +4065,19 @@
         <v>1.136699426191269</v>
       </c>
       <c r="C108">
+        <v>0.9877480586712685</v>
+      </c>
+      <c r="D108">
         <v>1.133600861309582</v>
-      </c>
-      <c r="D108">
-        <v>1.050589477388703</v>
       </c>
       <c r="E108">
         <v>1.065871833084948</v>
       </c>
       <c r="F108">
-        <v>0.9877480586712685</v>
+        <v>1.050589477388703</v>
       </c>
       <c r="G108">
-        <v>1.071492858553192</v>
+        <v>1.084460472886946</v>
       </c>
       <c r="H108">
         <v>1.056353667519487</v>
@@ -4106,19 +4094,19 @@
         <v>1.123101306249202</v>
       </c>
       <c r="C109">
+        <v>0.9800977854472247</v>
+      </c>
+      <c r="D109">
         <v>1.096701575805031</v>
-      </c>
-      <c r="D109">
-        <v>1.039943691712124</v>
       </c>
       <c r="E109">
         <v>1.067511177347243</v>
       </c>
       <c r="F109">
-        <v>0.9800977854472247</v>
+        <v>1.039943691712124</v>
       </c>
       <c r="G109">
-        <v>1.058403387075308</v>
+        <v>1.067185418998848</v>
       </c>
       <c r="H109">
         <v>1.046575290830534</v>
@@ -4135,19 +4123,19 @@
         <v>1.090305136952376</v>
       </c>
       <c r="C110">
+        <v>0.972313296903461</v>
+      </c>
+      <c r="D110">
         <v>1.050308309679945</v>
-      </c>
-      <c r="D110">
-        <v>0.9936653176139362</v>
       </c>
       <c r="E110">
         <v>1.050521609538003</v>
       </c>
       <c r="F110">
-        <v>0.972313296903461</v>
+        <v>0.9936653176139362</v>
       </c>
       <c r="G110">
-        <v>1.025581600302935</v>
+        <v>1.034537718929944</v>
       </c>
       <c r="H110">
         <v>1.031282638434078</v>
@@ -4164,19 +4152,19 @@
         <v>1.092001712306663</v>
       </c>
       <c r="C111">
+        <v>0.9761288467069313</v>
+      </c>
+      <c r="D111">
         <v>1.054810609768034</v>
-      </c>
-      <c r="D111">
-        <v>1.014956888967095</v>
       </c>
       <c r="E111">
         <v>1.077198211624441</v>
       </c>
       <c r="F111">
-        <v>0.9761288467069313</v>
+        <v>1.014956888967095</v>
       </c>
       <c r="G111">
-        <v>1.038692832736516</v>
+        <v>1.044875287853366</v>
       </c>
       <c r="H111">
         <v>1.03911664789834</v>
@@ -4193,19 +4181,19 @@
         <v>1.088202832644187</v>
       </c>
       <c r="C112">
+        <v>0.9630524398427764</v>
+      </c>
+      <c r="D112">
         <v>1.073504942742488</v>
-      </c>
-      <c r="D112">
-        <v>1.038184057715995</v>
       </c>
       <c r="E112">
         <v>1.064232488822653</v>
       </c>
       <c r="F112">
-        <v>0.9630524398427764</v>
+        <v>1.038184057715995</v>
       </c>
       <c r="G112">
-        <v>1.044593074091809</v>
+        <v>1.049868757606682</v>
       </c>
       <c r="H112">
         <v>1.045648653784841</v>
@@ -4222,19 +4210,19 @@
         <v>1.09055551923474</v>
       </c>
       <c r="C113">
+        <v>0.9528137283098458</v>
+      </c>
+      <c r="D113">
         <v>1.068121757854556</v>
-      </c>
-      <c r="D113">
-        <v>1.070649304944572</v>
       </c>
       <c r="E113">
         <v>1.055663189269747</v>
       </c>
       <c r="F113">
-        <v>0.9528137283098458</v>
+        <v>1.070649304944572</v>
       </c>
       <c r="G113">
-        <v>1.051688099137522</v>
+        <v>1.050694513719946</v>
       </c>
       <c r="H113">
         <v>1.053410416970965</v>
@@ -4251,19 +4239,19 @@
         <v>1.101601974667874</v>
       </c>
       <c r="C114">
+        <v>0.9582782091841626</v>
+      </c>
+      <c r="D114">
         <v>1.073896447097974</v>
-      </c>
-      <c r="D114">
-        <v>1.07364068273799</v>
       </c>
       <c r="E114">
         <v>1.063561847988078</v>
       </c>
       <c r="F114">
-        <v>0.9582782091841626</v>
+        <v>1.07364068273799</v>
       </c>
       <c r="G114">
-        <v>1.057739766437151</v>
+        <v>1.057203876366979</v>
       </c>
       <c r="H114">
         <v>1.058532049862497</v>
@@ -4280,19 +4268,19 @@
         <v>1.1160717247728</v>
       </c>
       <c r="C115">
+        <v>0.9451442814686992</v>
+      </c>
+      <c r="D115">
         <v>1.092003523539199</v>
-      </c>
-      <c r="D115">
-        <v>1.088509590005279</v>
       </c>
       <c r="E115">
         <v>1.02973174366617</v>
       </c>
       <c r="F115">
-        <v>0.9451442814686992</v>
+        <v>1.088509590005279</v>
       </c>
       <c r="G115">
-        <v>1.060435501062035</v>
+        <v>1.060277703884779</v>
       </c>
       <c r="H115">
         <v>1.066410035322148</v>
@@ -4309,19 +4297,19 @@
         <v>1.118823361974031</v>
       </c>
       <c r="C116">
+        <v>0.9467932125395456</v>
+      </c>
+      <c r="D116">
         <v>1.084956445140452</v>
-      </c>
-      <c r="D116">
-        <v>1.123790251627661</v>
       </c>
       <c r="E116">
         <v>1.033383010432191</v>
       </c>
       <c r="F116">
-        <v>0.9467932125395456</v>
+        <v>1.123790251627661</v>
       </c>
       <c r="G116">
-        <v>1.072222427036927</v>
+        <v>1.065124032803533</v>
       </c>
       <c r="H116">
         <v>1.060900471328436</v>
@@ -4338,19 +4326,19 @@
         <v>1.151759192902441</v>
       </c>
       <c r="C117">
+        <v>0.9647397181478287</v>
+      </c>
+      <c r="D117">
         <v>1.113829891357541</v>
-      </c>
-      <c r="D117">
-        <v>1.129773007214499</v>
       </c>
       <c r="E117">
         <v>1.056482861400894</v>
       </c>
       <c r="F117">
-        <v>0.9647397181478287</v>
+        <v>1.129773007214499</v>
       </c>
       <c r="G117">
-        <v>1.091476962330521</v>
+        <v>1.088100897348074</v>
       </c>
       <c r="H117">
         <v>1.070094595507224</v>
@@ -4364,28 +4352,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.158596065849592</v>
+        <v>1.158595950178206</v>
       </c>
       <c r="C118">
-        <v>1.113829891357541</v>
+        <v>0.979925222893299</v>
       </c>
       <c r="D118">
-        <v>1.129773007214499</v>
+        <v>1.10453166291475</v>
       </c>
       <c r="E118">
-        <v>1.056482861400894</v>
+        <v>1.067287630402384</v>
       </c>
       <c r="F118">
-        <v>0.9647397181478287</v>
+        <v>1.144377969382368</v>
       </c>
       <c r="G118">
-        <v>1.092639230731537</v>
+        <v>1.092968872148508</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.157231721850478</v>
+      </c>
+      <c r="C119">
+        <v>0.9655833573003547</v>
+      </c>
+      <c r="D119">
+        <v>1.088871488695312</v>
+      </c>
+      <c r="E119">
+        <v>1.04903129657228</v>
+      </c>
+      <c r="F119">
+        <v>1.176139363012493</v>
+      </c>
+      <c r="G119">
+        <v>1.087359313556582</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.164615812991016</v>
+      </c>
+      <c r="C120">
+        <v>0.9664269964528809</v>
+      </c>
+      <c r="D120">
+        <v>1.108055202114124</v>
+      </c>
+      <c r="E120">
+        <v>1.060134128166915</v>
+      </c>
+      <c r="F120">
+        <v>1.190920288579975</v>
+      </c>
+      <c r="G120">
+        <v>1.09935947306636</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.142112314972629</v>
+      </c>
+      <c r="C121">
+        <v>0.9736362764835588</v>
+      </c>
+      <c r="D121">
+        <v>1.087305471273368</v>
+      </c>
+      <c r="E121">
+        <v>1.068479880774963</v>
+      </c>
+      <c r="F121">
+        <v>1.153704029561851</v>
+      </c>
+      <c r="G121">
+        <v>1.085148411273338</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.121508187382649</v>
+      </c>
+      <c r="C122">
+        <v>0.9452593231713163</v>
+      </c>
+      <c r="D122">
+        <v>1.101399628070862</v>
+      </c>
+      <c r="E122">
+        <v>1.026751117734724</v>
+      </c>
+      <c r="F122">
+        <v>1.138571177195143</v>
+      </c>
+      <c r="G122">
+        <v>1.072090532720987</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.141999211491295</v>
+      </c>
+      <c r="C123">
+        <v>0.9396606269772794</v>
+      </c>
+      <c r="D123">
+        <v>1.152980326906137</v>
+      </c>
+      <c r="E123">
+        <v>1.03301043219076</v>
+      </c>
+      <c r="F123">
+        <v>1.157311279253915</v>
+      </c>
+      <c r="G123">
+        <v>1.095768762807054</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.172960740067379</v>
+      </c>
+      <c r="C124">
+        <v>0.934828875467357</v>
+      </c>
+      <c r="D124">
+        <v>1.164333953215229</v>
+      </c>
+      <c r="E124">
+        <v>1.027719821162444</v>
+      </c>
+      <c r="F124">
+        <v>1.134875945803273</v>
+      </c>
+      <c r="G124">
+        <v>1.099382740751274</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.189142449820943</v>
+      </c>
+      <c r="C125">
+        <v>0.9378966542038157</v>
+      </c>
+      <c r="D125">
+        <v>1.201428990897524</v>
+      </c>
+      <c r="E125">
+        <v>1.04344262295082</v>
+      </c>
+      <c r="F125">
+        <v>1.195759282069329</v>
+      </c>
+      <c r="G125">
+        <v>1.127536529008716</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.186521636957397</v>
+      </c>
+      <c r="C126">
+        <v>0.9208704822164703</v>
+      </c>
+      <c r="D126">
+        <v>1.205539786630126</v>
+      </c>
+      <c r="E126">
+        <v>1.020417287630402</v>
+      </c>
+      <c r="F126">
+        <v>1.207724793243006</v>
+      </c>
+      <c r="G126">
+        <v>1.123728233191611</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.211938249432019</v>
+      </c>
+      <c r="C127">
+        <v>0.9037676157607133</v>
+      </c>
+      <c r="D127">
+        <v>1.27415092492904</v>
+      </c>
+      <c r="E127">
+        <v>0.9888226527570789</v>
+      </c>
+      <c r="F127">
+        <v>1.215731127925391</v>
+      </c>
+      <c r="G127">
+        <v>1.143891176121955</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4497,18 +4746,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -4540,213 +4789,195 @@
       <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>0.17</v>
       </c>
       <c r="J2">
-        <v>24.53</v>
+        <v>4.356100082397461</v>
       </c>
       <c r="K2">
-        <v>4.14</v>
+        <v>25.67799949645996</v>
       </c>
       <c r="L2">
-        <v>11.05</v>
-      </c>
-      <c r="M2">
-        <v>13.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.6868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I3">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="J3">
-        <v>39.53</v>
+        <v>8.680999755859375</v>
       </c>
       <c r="K3">
-        <v>3.11</v>
+        <v>37.81980133056641</v>
       </c>
       <c r="L3">
-        <v>16.99</v>
-      </c>
-      <c r="M3">
-        <v>24.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>21.132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="J4">
-        <v>48.82</v>
+        <v>3.554100036621094</v>
       </c>
       <c r="K4">
-        <v>4.98</v>
+        <v>45.20259857177734</v>
       </c>
       <c r="L4">
-        <v>15.45</v>
-      </c>
-      <c r="M4">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>24.3531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>0.165</v>
       </c>
       <c r="J5">
-        <v>55.64</v>
+        <v>12.167799949646</v>
       </c>
       <c r="K5">
-        <v>12.65</v>
+        <v>51.78060150146484</v>
       </c>
       <c r="L5">
-        <v>5.22</v>
-      </c>
-      <c r="M5">
-        <v>11.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6">
-        <v>0.165</v>
+        <v>0.33</v>
       </c>
       <c r="J6">
-        <v>41.16</v>
+        <v>5.359000205993652</v>
       </c>
       <c r="K6">
-        <v>9.26</v>
+        <v>52.7661018371582</v>
       </c>
       <c r="L6">
-        <v>13.51</v>
-      </c>
-      <c r="M6">
-        <v>21.13</v>
+        <v>44.9032</v>
       </c>
     </row>
   </sheetData>
@@ -4764,19 +4995,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4784,19 +5015,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4804,19 +5035,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4824,19 +5055,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4844,19 +5075,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4864,19 +5095,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4884,19 +5115,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4904,19 +5135,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4924,19 +5155,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4944,16 +5175,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
         <v>165</v>
@@ -4964,13 +5195,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
         <v>146</v>
@@ -4984,16 +5215,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
         <v>167</v>
@@ -5004,16 +5235,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
         <v>168</v>
@@ -5024,16 +5255,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
         <v>169</v>
@@ -5044,16 +5275,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15" t="s">
         <v>170</v>
@@ -5064,16 +5295,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
         <v>171</v>
@@ -5084,16 +5315,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F17" t="s">
         <v>172</v>
@@ -5104,16 +5335,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
         <v>173</v>
@@ -5124,16 +5355,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
         <v>174</v>
@@ -5144,16 +5375,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
         <v>175</v>
@@ -5164,16 +5395,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
         <v>176</v>
@@ -5186,7 +5417,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5202,79 +5433,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
